--- a/data-raw/D016/Copy of analytes_complete_ref_unit_SKa.xlsx
+++ b/data-raw/D016/Copy of analytes_complete_ref_unit_SKa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\r_projects\gramlyr\data-raw\D016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mteunis\workspaces\kinetics\data-raw\D016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9610B0-F114-40E4-8118-1163EE0F708C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE6200-5151-4063-AAB4-B5444FE4F3F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analyte_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="276">
   <si>
     <t>analyte_short</t>
   </si>
@@ -664,9 +664,6 @@
     <t>fL</t>
   </si>
   <si>
-    <t>lymphocytes corrected</t>
-  </si>
-  <si>
     <t>lymphocytes</t>
   </si>
   <si>
@@ -839,6 +836,18 @@
   </si>
   <si>
     <t>MMP-9</t>
+  </si>
+  <si>
+    <t>lymphocytes.uncorrected</t>
+  </si>
+  <si>
+    <t>EOS_ABS</t>
+  </si>
+  <si>
+    <t>shl</t>
+  </si>
+  <si>
+    <t>whole blood</t>
   </si>
 </sst>
 </file>
@@ -1209,27 +1218,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.36328125" style="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.36328125" style="1"/>
+    <col min="1" max="2" width="16.33203125" style="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1268,12 +1277,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -1312,15 +1321,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>95</v>
@@ -1356,15 +1365,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>117</v>
@@ -1400,12 +1409,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -1444,15 +1453,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>97</v>
@@ -1488,12 +1497,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -1532,12 +1541,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -1576,15 +1585,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>121</v>
@@ -1620,15 +1629,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>122</v>
@@ -1662,15 +1671,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>123</v>
@@ -1703,15 +1712,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>100</v>
@@ -1744,12 +1753,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
@@ -1785,15 +1794,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>125</v>
@@ -1826,15 +1835,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>126</v>
@@ -1867,15 +1876,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>127</v>
@@ -1908,12 +1917,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>128</v>
@@ -1946,15 +1955,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>129</v>
@@ -1987,15 +1996,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>130</v>
@@ -2029,12 +2038,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>131</v>
@@ -2067,15 +2076,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>207</v>
@@ -2108,15 +2117,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>132</v>
@@ -2150,12 +2159,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
@@ -2191,12 +2200,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
@@ -2235,15 +2244,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>135</v>
@@ -2279,15 +2288,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>136</v>
@@ -2323,12 +2332,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
         <v>104</v>
@@ -2367,15 +2376,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>138</v>
@@ -2411,15 +2420,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>139</v>
@@ -2452,12 +2461,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
@@ -2493,15 +2502,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>141</v>
@@ -2534,12 +2543,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
         <v>106</v>
@@ -2575,18 +2584,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -2616,18 +2625,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2657,15 +2666,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>214</v>
@@ -2698,12 +2707,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
         <v>107</v>
@@ -2739,15 +2748,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>144</v>
@@ -2780,15 +2789,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>145</v>
@@ -2821,12 +2830,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -2862,15 +2871,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>147</v>
@@ -2903,15 +2912,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>148</v>
@@ -2944,12 +2953,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
         <v>109</v>
@@ -2985,15 +2994,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>150</v>
@@ -3026,15 +3035,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>151</v>
@@ -3067,15 +3076,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>152</v>
@@ -3111,12 +3120,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
         <v>110</v>
@@ -3155,15 +3164,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>154</v>
@@ -3193,12 +3202,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" t="s">
         <v>111</v>
@@ -3237,12 +3246,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
@@ -3278,15 +3287,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>157</v>
@@ -3319,12 +3328,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
@@ -3360,12 +3369,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
@@ -3401,15 +3410,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>160</v>
@@ -3445,12 +3454,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
         <v>115</v>
@@ -3489,12 +3498,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
         <v>182</v>
@@ -3530,12 +3539,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
         <v>181</v>
@@ -3571,12 +3580,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
         <v>164</v>
@@ -3612,12 +3621,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>165</v>
@@ -3651,15 +3660,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>166</v>
@@ -3693,15 +3702,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>167</v>
@@ -3735,12 +3744,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
         <v>168</v>
@@ -3777,12 +3786,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
         <v>169</v>
@@ -3818,12 +3827,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
         <v>170</v>
@@ -3859,12 +3868,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
         <v>171</v>
@@ -3900,15 +3909,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>172</v>
@@ -3941,12 +3950,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
         <v>173</v>
@@ -3982,12 +3991,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C67" t="s">
         <v>174</v>
@@ -4023,12 +4032,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" t="s">
         <v>175</v>
@@ -4064,12 +4073,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>176</v>
@@ -4105,12 +4114,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C70" t="s">
         <v>177</v>
@@ -4146,12 +4155,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
@@ -4187,12 +4196,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C72" t="s">
         <v>179</v>
@@ -4229,12 +4238,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
         <v>180</v>
@@ -4273,12 +4282,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>181</v>
@@ -4314,12 +4323,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>182</v>
@@ -4355,12 +4364,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
         <v>183</v>
@@ -4399,12 +4408,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C77" t="s">
         <v>184</v>
@@ -4443,12 +4452,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" t="s">
         <v>185</v>
@@ -4487,18 +4496,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E79" s="1" t="e">
         <v>#N/A</v>
@@ -4510,13 +4519,13 @@
         <v>210</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>200</v>
@@ -4531,38 +4540,38 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>272</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E81" s="1" t="e">
         <v>#N/A</v>
@@ -4574,21 +4583,21 @@
         <v>210</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
         <v>186</v>
@@ -4627,18 +4636,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E83" s="1" t="e">
         <v>#N/A</v>
@@ -4650,13 +4659,13 @@
         <v>210</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J83" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>200</v>
@@ -4671,58 +4680,58 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J84" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="J85" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
         <v>187</v>
@@ -4761,12 +4770,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
         <v>188</v>
@@ -4805,12 +4814,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
         <v>189</v>
@@ -4849,15 +4858,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>84</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>207</v>
@@ -4875,24 +4884,47 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>85</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>269</v>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>86</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
